--- a/Document/Testcase.xlsx
+++ b/Document/Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Programming\Github\AdBlogBlock\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCC9A3-CDFA-4AB6-B440-E2A39F8C7564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE6CF16-B0D2-4FF1-8075-F8F14134BD2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{5139D398-EF8C-4199-A71C-99B1171F161F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{5139D398-EF8C-4199-A71C-99B1171F161F}"/>
   </bookViews>
   <sheets>
     <sheet name="광고글" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,89 @@
   </si>
   <si>
     <t>http://cheonching.com/221454218906</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/doorido/221517822030</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/limjark2/221384028863</t>
+  </si>
+  <si>
+    <t>여행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/juble93/221498007206</t>
+  </si>
+  <si>
+    <t>http://neophil.co.kr/221482372147</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/trust3939/221526423733</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/cksals8qk/221525092827</t>
+  </si>
+  <si>
+    <t>http://dicagallery.com/221504489199</t>
+  </si>
+  <si>
+    <t>http://mnteye.com/221481157280</t>
+  </si>
+  <si>
+    <t>소정의 광고료 멘트가 사진속에 있음= 파싱으로 식별 불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/dogslife78/221387109170</t>
+  </si>
+  <si>
+    <t>https://lovebm77.blog.me/221385717822</t>
+  </si>
+  <si>
+    <t>쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/mangsmell/221155385863</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/gabin526/221490013520</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/jimini0_0/221511256562</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ssuggest/221498079445</t>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ozee.kr/221500617062</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/chlguswls063/221394364700</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/puck1001/221502911880</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/geeyoming/221488518580</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/ganet0306/221480223879</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/cubbobbo/221504925855</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/teatree725/221445086723</t>
+  </si>
+  <si>
+    <t>미용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -644,9 +727,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
       <alignment vertical="center"/>
     </xf>
@@ -656,24 +736,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -933,7 +1004,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1110,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,7 +1163,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,7 +1269,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,7 +2301,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Junho Song" refreshedDate="43586.061289699071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="80" xr:uid="{516A9EF3-B98B-422C-9350-B33A2D332B83}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Junho Song" refreshedDate="43590.89394386574" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="100" xr:uid="{516A9EF3-B98B-422C-9350-B33A2D332B83}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C176" sheet="광고글"/>
   </cacheSource>
@@ -2266,7 +2337,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
   <r>
     <s v="https://blog.naver.com/fioraness/221499398879"/>
     <x v="0"/>
@@ -2660,6 +2731,106 @@
   <r>
     <s v="https://blog.naver.com/soary81/221499491432"/>
     <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/limjark2/221384028863"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/juble93/221498007206"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="http://neophil.co.kr/221482372147"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/trust3939/221526423733"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/cksals8qk/221525092827"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="http://dicagallery.com/221504489199"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="http://mnteye.com/221481157280"/>
+    <x v="7"/>
+    <s v="소정의 광고료 멘트가 사진속에 있음= 파싱으로 식별 불가능"/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/dogslife78/221387109170"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://lovebm77.blog.me/221385717822"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/mangsmell/221155385863"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/gabin526/221490013520"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/jimini0_0/221511256562"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/ssuggest/221498079445"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="http://ozee.kr/221500617062"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/chlguswls063/221394364700"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/puck1001/221502911880"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/geeyoming/221488518580"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/ganet0306/221480223879"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/cubbobbo/221504925855"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <s v="https://blog.naver.com/teatree725/221445086723"/>
+    <x v="2"/>
     <m/>
   </r>
   <r>
@@ -2671,7 +2842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CC3C1EA-D969-40FD-B6FC-6A031188B4E1}" name="피벗 테이블1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1CC3C1EA-D969-40FD-B6FC-6A031188B4E1}" name="피벗 테이블1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:L5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -2738,14 +2909,14 @@
     <dataField name="개수 : URL" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3192,11 +3363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2370BEC9-2ACA-4724-8315-1001A5761012}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3258,10 +3429,10 @@
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -3270,8 +3441,8 @@
       <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -3280,11 +3451,11 @@
       <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <f>COUNTA(A:A)</f>
-        <v>80</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -3293,8 +3464,8 @@
       <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -3916,6 +4087,169 @@
       </c>
       <c r="B80" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4004,9 +4338,29 @@
     <hyperlink ref="A78" r:id="rId77" xr:uid="{51EA7024-672E-433D-8060-D5893FC42626}"/>
     <hyperlink ref="A79" r:id="rId78" xr:uid="{5E03CF97-6E79-4519-A748-9F53DCBCCD26}"/>
     <hyperlink ref="A80" r:id="rId79" xr:uid="{D82CE326-48F4-4CC8-B7F9-25FEC495AAE4}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{7DF8A4A9-3028-4D8E-A0F0-B03448D3B493}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{05C259E8-4CA6-4AEE-9C5C-80564AFCFD60}"/>
+    <hyperlink ref="A83" r:id="rId82" xr:uid="{EE8C95AA-250A-4EB3-9578-646739F9D620}"/>
+    <hyperlink ref="A84" r:id="rId83" xr:uid="{4049E912-CADF-4088-AAFB-DFD04306C2DB}"/>
+    <hyperlink ref="A85" r:id="rId84" xr:uid="{DA03F557-8B4B-43C2-BE75-45F8CD3D7BCC}"/>
+    <hyperlink ref="A86" r:id="rId85" xr:uid="{89393455-88D8-4324-811C-1EFBB213668B}"/>
+    <hyperlink ref="A87" r:id="rId86" xr:uid="{97F58981-C876-43D6-AB8D-765691B60F50}"/>
+    <hyperlink ref="A88" r:id="rId87" xr:uid="{C632F74C-2966-47DB-9528-897EA8E2D02E}"/>
+    <hyperlink ref="A89" r:id="rId88" xr:uid="{864D4715-F774-4A3F-8A57-8B1361A97186}"/>
+    <hyperlink ref="A90" r:id="rId89" xr:uid="{B972E745-C642-4943-88E7-F3C1D790F780}"/>
+    <hyperlink ref="A91" r:id="rId90" xr:uid="{C93EBE86-CD90-4718-894B-CE4FCBF5CE6F}"/>
+    <hyperlink ref="A92" r:id="rId91" xr:uid="{81A492C8-7757-4D6B-95BA-10539910144F}"/>
+    <hyperlink ref="A93" r:id="rId92" xr:uid="{F95D5BFA-19F8-4B2D-86FA-08B38B1727FC}"/>
+    <hyperlink ref="A94" r:id="rId93" xr:uid="{6DBA98AF-1316-4FBE-A222-1701F92A2A22}"/>
+    <hyperlink ref="A95" r:id="rId94" xr:uid="{48DD05E1-C52A-4F20-8872-F2059FF5FE66}"/>
+    <hyperlink ref="A96" r:id="rId95" xr:uid="{DA7192AC-0E12-43A8-9692-D057BC37E1A8}"/>
+    <hyperlink ref="A97" r:id="rId96" xr:uid="{F2F7486E-AF4B-4A1E-927C-02BD36648130}"/>
+    <hyperlink ref="A98" r:id="rId97" xr:uid="{CC631A9E-72FD-4616-92C3-0E334A8FE682}"/>
+    <hyperlink ref="A99" r:id="rId98" xr:uid="{22E38DE1-E115-413F-B93E-7FAF02036445}"/>
+    <hyperlink ref="A100" r:id="rId99" xr:uid="{349ACF6E-3257-47E4-B76A-61FAF03B86FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId100"/>
 </worksheet>
 </file>
 
@@ -4015,7 +4369,7 @@
   <dimension ref="A3:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4029,42 +4383,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4072,36 +4426,36 @@
       <c r="A5" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>8</v>
-      </c>
-      <c r="G5" s="7">
-        <v>3</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7">
-        <v>79</v>
+      <c r="L5" s="6">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4115,9 +4469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10A434C-E156-4DEC-95BC-F24123063EF2}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4164,34 +4518,34 @@
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <f>COUNTA(A:A)</f>
-        <v>22</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -4265,7 +4619,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -4354,9 +4710,10 @@
     <hyperlink ref="A20" r:id="rId6" xr:uid="{F15BA2E1-442E-4ACF-91EE-63B40CC50AFF}"/>
     <hyperlink ref="A21" r:id="rId7" xr:uid="{8EA06B24-4CB0-46AD-9753-22522B4043DC}"/>
     <hyperlink ref="A22" r:id="rId8" xr:uid="{438B6D9F-CF74-4C1A-AFF0-338F0B53FD97}"/>
+    <hyperlink ref="A23" r:id="rId9" xr:uid="{D82C9460-47FF-4875-A866-DE293194499B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4366,7 +4723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4413,10 +4770,10 @@
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -4425,25 +4782,25 @@
       <c r="C7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <f>COUNTA(A:A)</f>
         <v>9</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
